--- a/result_time.xlsx
+++ b/result_time.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5CAA4E9-5445-4A67-8C3A-DF453938BE6D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D33E929-9DBE-47BB-B196-6EE7F680E611}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Variant</t>
   </si>
@@ -31,7 +31,10 @@
     <t>multi thread</t>
   </si>
   <si>
-    <t>time</t>
+    <t>time(sec)</t>
+  </si>
+  <si>
+    <t>time(min)</t>
   </si>
 </sst>
 </file>
@@ -349,10 +352,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -362,22 +365,37 @@
     <col min="3" max="3" width="43.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
       </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="B2">
+        <v>2684</v>
+      </c>
+      <c r="C2">
+        <v>44.7</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
+      </c>
+      <c r="B3">
+        <v>3077</v>
+      </c>
+      <c r="C3">
+        <v>51.2</v>
       </c>
     </row>
   </sheetData>
